--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1786.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1786.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.833727342842404</v>
+        <v>0.7040336728096008</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.34195613861084</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.826931953430176</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.46489143371582</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>0.6704949140548706</v>
       </c>
     </row>
   </sheetData>
